--- a/src/data/xlsx/list_VIOLATION_TAX_CODE_KZ_ALL.xlsx
+++ b/src/data/xlsx/list_VIOLATION_TAX_CODE_KZ_ALL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1054">
   <si>
     <t>___ жылғы жағдай бойынша Салық кодексінің ережелерін бұза отырып қайта ұйымдастырылған салық төлеушілер туралы ақпарат / Информация о налогоплательщиках, реорганизованных с нарушением норм Налогового кодекса по состоянию на ___ года</t>
   </si>
@@ -66,7 +66,7 @@
 Характер нарушения</t>
   </si>
   <si>
-    <t>2018.06.21 жылғы жағдай бойынша Салық кодексінің ережелерін бұза отырып қайта ұйымдастырылған салық төлеушілер туралы ақпарат / Информация о налогоплательщиках, реорганизованных с нарушением норм Налогового кодекса по состоянию на 2018.06.21 года</t>
+    <t>2018.06.24 жылғы жағдай бойынша Салық кодексінің ережелерін бұза отырып қайта ұйымдастырылған салық төлеушілер туралы ақпарат / Информация о налогоплательщиках, реорганизованных с нарушением норм Налогового кодекса по состоянию на 2018.06.24 года</t>
   </si>
   <si>
     <t>000140000568</t>
@@ -3175,6 +3175,21 @@
   </si>
   <si>
     <t>39р</t>
+  </si>
+  <si>
+    <t>131040025797</t>
+  </si>
+  <si>
+    <t>270800212737</t>
+  </si>
+  <si>
+    <t>Государственное учреждение "Отдел предпринимательства Казталовского района Западно-Казахстанской области"</t>
+  </si>
+  <si>
+    <t>АЙБЕК АКМАЛИЕВ ХАЙРОНОВИЧ</t>
+  </si>
+  <si>
+    <t>641217300382</t>
   </si>
 </sst>
 </file>
@@ -9428,6 +9443,36 @@
       </c>
       <c r="J195"/>
     </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H196" t="s">
+        <v>931</v>
+      </c>
+      <c r="I196" t="n" s="8">
+        <v>43273.0</v>
+      </c>
+      <c r="J196"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A3:J3"/>
